--- a/tmp/课程表.xlsx
+++ b/tmp/课程表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>深入理解 TCP 协议，24 总结</t>
+  </si>
+  <si>
+    <t>学习 github 的搜索技巧</t>
   </si>
   <si>
     <t>待排任务：
@@ -102,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,7 +143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,13 +158,53 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,23 +212,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -194,14 +234,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,47 +256,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,49 +296,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,121 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +511,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -525,41 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,143 +564,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,9 +754,6 @@
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1092,7 +1092,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1175,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="68" spans="2:8">
+    <row r="7" ht="34" spans="2:8">
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="68" spans="2:8">
+    <row r="8" ht="34" spans="2:8">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1213,9 +1213,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
+    <row r="9" ht="34" spans="2:8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1223,7 +1225,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="5"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1232,7 +1234,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1241,7 +1243,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1250,116 +1252,116 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
